--- a/할일_리스트_샘플.xlsx
+++ b/할일_리스트_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelSheetAutoPrinter\ExcelSheetAutoPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4586D61-6CDB-4E01-84E0-6266901A4669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A35E02-FFAC-41FA-A866-3C95506D933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13875" yWindow="1200" windowWidth="21255" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/할일_리스트_샘플.xlsx
+++ b/할일_리스트_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelSheetAutoPrinter\ExcelSheetAutoPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A35E02-FFAC-41FA-A866-3C95506D933C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66694CB2-24C3-4E80-BABE-F8F2520B199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13875" yWindow="1200" windowWidth="21255" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/할일_리스트_샘플.xlsx
+++ b/할일_리스트_샘플.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelSheetAutoPrinter\ExcelSheetAutoPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66694CB2-24C3-4E80-BABE-F8F2520B199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB579C0F-7320-4658-9FFB-0A24E67C3868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13875" yWindow="1200" windowWidth="21255" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/할일_리스트_샘플.xlsx
+++ b/할일_리스트_샘플.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ExcelSheetAutoPrinter\ExcelSheetAutoPrinter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB579C0F-7320-4658-9FFB-0A24E67C3868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E978E6B0-319C-45E6-AE7F-DCCDFECA5B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="1200" windowWidth="21255" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38310" yWindow="2145" windowWidth="21255" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
